--- a/Code/Results/Cases/Case_5_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_112/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.16016799547512</v>
+        <v>9.705819096474256</v>
       </c>
       <c r="C2">
-        <v>8.189280043402942</v>
+        <v>5.886732840644895</v>
       </c>
       <c r="D2">
-        <v>4.405643468010969</v>
+        <v>4.698982350471384</v>
       </c>
       <c r="E2">
-        <v>29.58774225021715</v>
+        <v>16.47109017746577</v>
       </c>
       <c r="F2">
-        <v>18.84653939902399</v>
+        <v>23.8043630212011</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.66284190243755</v>
+        <v>8.882731979470774</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.49514500024548</v>
+        <v>17.87599817921527</v>
       </c>
       <c r="O2">
-        <v>14.85518763172149</v>
+        <v>21.24733676098599</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22659821172235</v>
+        <v>9.374954354194008</v>
       </c>
       <c r="C3">
-        <v>7.786574915686545</v>
+        <v>5.706250316016121</v>
       </c>
       <c r="D3">
-        <v>4.279417168664951</v>
+        <v>4.652626964583883</v>
       </c>
       <c r="E3">
-        <v>27.44988242437916</v>
+        <v>15.53926467437217</v>
       </c>
       <c r="F3">
-        <v>18.32873715677714</v>
+        <v>23.79061507511111</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.91958919520851</v>
+        <v>8.647363175537642</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.71411542649139</v>
+        <v>17.93844410697893</v>
       </c>
       <c r="O3">
-        <v>14.68883229915772</v>
+        <v>21.2924919510841</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.62081203150818</v>
+        <v>9.167637212089963</v>
       </c>
       <c r="C4">
-        <v>7.528802441796422</v>
+        <v>5.591466566721013</v>
       </c>
       <c r="D4">
-        <v>4.199327539190244</v>
+        <v>4.623474135509062</v>
       </c>
       <c r="E4">
-        <v>26.07348319726069</v>
+        <v>14.9424130199795</v>
       </c>
       <c r="F4">
-        <v>18.02320662396707</v>
+        <v>23.78909603260898</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.43980507677146</v>
+        <v>8.501173258586117</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.85101830203792</v>
+        <v>17.97850918578589</v>
       </c>
       <c r="O4">
-        <v>14.6009936761179</v>
+        <v>21.32540428907016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.36571667893516</v>
+        <v>9.082245421718524</v>
       </c>
       <c r="C5">
-        <v>7.421171013320693</v>
+        <v>5.543735994404134</v>
       </c>
       <c r="D5">
-        <v>4.166069995046247</v>
+        <v>4.611425863154473</v>
       </c>
       <c r="E5">
-        <v>25.49626734298313</v>
+        <v>14.69324880114321</v>
       </c>
       <c r="F5">
-        <v>17.90190715503347</v>
+        <v>23.79021741609503</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.23843153479521</v>
+        <v>8.441271340075417</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.90745834841488</v>
+        <v>17.99527072555968</v>
       </c>
       <c r="O5">
-        <v>14.56868591495624</v>
+        <v>21.34011648575572</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.32285994012997</v>
+        <v>9.068015606255418</v>
       </c>
       <c r="C6">
-        <v>7.40314455401726</v>
+        <v>5.535753985052296</v>
       </c>
       <c r="D6">
-        <v>4.160511060759762</v>
+        <v>4.609415252793566</v>
       </c>
       <c r="E6">
-        <v>25.39942702463601</v>
+        <v>14.65152531950265</v>
       </c>
       <c r="F6">
-        <v>17.88196158250553</v>
+        <v>23.79050870178548</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.20464112602289</v>
+        <v>8.431307628284383</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.91687044730809</v>
+        <v>17.99808026285974</v>
       </c>
       <c r="O6">
-        <v>14.5635284890633</v>
+        <v>21.34263783351084</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.61740511171651</v>
+        <v>9.166489074324344</v>
       </c>
       <c r="C7">
-        <v>7.527361277548369</v>
+        <v>5.590826664655144</v>
       </c>
       <c r="D7">
-        <v>4.198881486776092</v>
+        <v>4.62331232243314</v>
       </c>
       <c r="E7">
-        <v>26.06576512551064</v>
+        <v>14.9390763681942</v>
       </c>
       <c r="F7">
-        <v>18.02155764164542</v>
+        <v>23.78910411059337</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.43711294424477</v>
+        <v>8.500366604492665</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.85177679295107</v>
+        <v>17.97873347583927</v>
       </c>
       <c r="O7">
-        <v>14.60054399370053</v>
+        <v>21.32559744439217</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8450057244937</v>
+        <v>9.592681041092508</v>
       </c>
       <c r="C8">
-        <v>8.052637754826785</v>
+        <v>5.825349865947812</v>
       </c>
       <c r="D8">
-        <v>4.362674589129967</v>
+        <v>4.683145492745095</v>
       </c>
       <c r="E8">
-        <v>28.86365666716554</v>
+        <v>16.15507130896395</v>
       </c>
       <c r="F8">
-        <v>18.66548154846598</v>
+        <v>23.79818628822194</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.4114441658644</v>
+        <v>8.801977782593211</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.57015773477007</v>
+        <v>17.89717278371593</v>
       </c>
       <c r="O8">
-        <v>14.79479594709061</v>
+        <v>21.26182735092079</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.99611691020848</v>
+        <v>10.38989363547242</v>
       </c>
       <c r="C9">
-        <v>8.997567053323532</v>
+        <v>6.252119765099915</v>
       </c>
       <c r="D9">
-        <v>4.662163125262976</v>
+        <v>4.79477129594236</v>
       </c>
       <c r="E9">
-        <v>33.85870248409656</v>
+        <v>18.41137254896235</v>
       </c>
       <c r="F9">
-        <v>20.02264444706763</v>
+        <v>23.87087055002837</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.13568071706529</v>
+        <v>9.376368424807087</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.03572145879251</v>
+        <v>17.75083767219069</v>
       </c>
       <c r="O9">
-        <v>15.29372547240943</v>
+        <v>21.17810115012547</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.42382845745718</v>
+        <v>10.94556887747802</v>
       </c>
       <c r="C10">
-        <v>9.638469686580905</v>
+        <v>6.5435206323015</v>
       </c>
       <c r="D10">
-        <v>4.86753842236481</v>
+        <v>4.873007789175806</v>
       </c>
       <c r="E10">
-        <v>37.25025444921039</v>
+        <v>20.04649757973483</v>
       </c>
       <c r="F10">
-        <v>21.07230456655111</v>
+        <v>23.95756516882097</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.28913224873308</v>
+        <v>9.78327021208807</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.65142447418362</v>
+        <v>17.65152479582289</v>
       </c>
       <c r="O10">
-        <v>15.73788654672044</v>
+        <v>21.14199546738764</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.04103285623645</v>
+        <v>11.19068458618787</v>
       </c>
       <c r="C11">
-        <v>9.918376059988262</v>
+        <v>6.670935294790323</v>
       </c>
       <c r="D11">
-        <v>4.957528746211647</v>
+        <v>4.907719757319902</v>
       </c>
       <c r="E11">
-        <v>38.73799810812385</v>
+        <v>20.74823905097954</v>
       </c>
       <c r="F11">
-        <v>21.56036079148411</v>
+        <v>24.0041689878088</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.78957469358131</v>
+        <v>9.964223287127377</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.47779599455525</v>
+        <v>17.60810499467772</v>
       </c>
       <c r="O11">
-        <v>15.95788987782047</v>
+        <v>21.13112506693341</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.27018895823962</v>
+        <v>11.28231972741806</v>
       </c>
       <c r="C12">
-        <v>10.02270132023466</v>
+        <v>6.718419679285143</v>
       </c>
       <c r="D12">
-        <v>4.991092766213582</v>
+        <v>4.920733082834631</v>
       </c>
       <c r="E12">
-        <v>39.29393422362175</v>
+        <v>21.00795447534692</v>
       </c>
       <c r="F12">
-        <v>21.74664003590837</v>
+        <v>24.02283910049953</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.97562864227014</v>
+        <v>10.03208381471484</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.41216223382608</v>
+        <v>17.59191435628163</v>
       </c>
       <c r="O12">
-        <v>16.04386508916122</v>
+        <v>21.12780980482027</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.22103790517614</v>
+        <v>11.26263837180483</v>
       </c>
       <c r="C13">
-        <v>10.00030706524618</v>
+        <v>6.70822744736738</v>
       </c>
       <c r="D13">
-        <v>4.983887274327846</v>
+        <v>4.917936350733389</v>
       </c>
       <c r="E13">
-        <v>39.17452610518204</v>
+        <v>20.95228727918808</v>
       </c>
       <c r="F13">
-        <v>21.70645707059431</v>
+        <v>24.01877283906882</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.93571146024336</v>
+        <v>10.01749928704482</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.42629344168141</v>
+        <v>17.59539013540391</v>
       </c>
       <c r="O13">
-        <v>16.02522895427803</v>
+        <v>21.12848814178403</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.05997672380801</v>
+        <v>11.19824765026313</v>
       </c>
       <c r="C14">
-        <v>9.926992352455278</v>
+        <v>6.6748573234785</v>
       </c>
       <c r="D14">
-        <v>4.960300471090008</v>
+        <v>4.908793032172591</v>
       </c>
       <c r="E14">
-        <v>38.78388147338205</v>
+        <v>20.76972643389977</v>
       </c>
       <c r="F14">
-        <v>21.57565702385208</v>
+        <v>24.00568455397814</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.80495041412269</v>
+        <v>9.969819847312991</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.47239428695776</v>
+        <v>17.60676794824084</v>
       </c>
       <c r="O14">
-        <v>15.96490923043112</v>
+        <v>21.13083625032028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.96072981117472</v>
+        <v>11.15864988043739</v>
       </c>
       <c r="C15">
-        <v>9.881867906825427</v>
+        <v>6.654316871884269</v>
       </c>
       <c r="D15">
-        <v>4.94578547599226</v>
+        <v>4.903175233318338</v>
       </c>
       <c r="E15">
-        <v>38.5436466115404</v>
+        <v>20.6571197878965</v>
       </c>
       <c r="F15">
-        <v>21.49572742984498</v>
+        <v>23.99780046044821</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.72440711943217</v>
+        <v>9.940526683693861</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.50064569563712</v>
+        <v>17.61376990060845</v>
       </c>
       <c r="O15">
-        <v>15.92831114221201</v>
+        <v>21.13237892883348</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.3828495876894</v>
+        <v>10.92938846894414</v>
       </c>
       <c r="C16">
-        <v>9.619943070426467</v>
+        <v>6.535088054112456</v>
       </c>
       <c r="D16">
-        <v>4.861586514450384</v>
+        <v>4.870721172669731</v>
       </c>
       <c r="E16">
-        <v>37.15195838166773</v>
+        <v>19.99979308593342</v>
       </c>
       <c r="F16">
-        <v>21.04061624441601</v>
+        <v>23.95466303099245</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.25594174953133</v>
+        <v>9.771355254427661</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.66279082386454</v>
+        <v>17.65439764702244</v>
       </c>
       <c r="O16">
-        <v>15.72387719332322</v>
+        <v>21.14281785709153</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02012498803619</v>
+        <v>10.78671904719312</v>
       </c>
       <c r="C17">
-        <v>9.456279111891597</v>
+        <v>6.460608579126189</v>
       </c>
       <c r="D17">
-        <v>4.809038862827288</v>
+        <v>4.850583079403894</v>
       </c>
       <c r="E17">
-        <v>36.28441996374798</v>
+        <v>19.58578895526622</v>
       </c>
       <c r="F17">
-        <v>20.76407940791931</v>
+        <v>23.9300296423322</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.96236082140408</v>
+        <v>9.666462744038165</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.76252855273556</v>
+        <v>17.67977081078456</v>
       </c>
       <c r="O17">
-        <v>15.60312121317966</v>
+        <v>21.15064624736786</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.80845328707489</v>
+        <v>10.70394231535827</v>
       </c>
       <c r="C18">
-        <v>9.361047077207431</v>
+        <v>6.417286972319839</v>
       </c>
       <c r="D18">
-        <v>4.77849246931878</v>
+        <v>4.838917812739639</v>
       </c>
       <c r="E18">
-        <v>35.78021780741461</v>
+        <v>19.34370152511957</v>
       </c>
       <c r="F18">
-        <v>20.60601898781262</v>
+        <v>23.91653625420192</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.79121371011476</v>
+        <v>9.60574442494932</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.82001070521764</v>
+        <v>17.69453034466046</v>
       </c>
       <c r="O18">
-        <v>15.53535050716557</v>
+        <v>21.15567160565891</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.7362602351452</v>
+        <v>10.67579506837988</v>
       </c>
       <c r="C19">
-        <v>9.328614760705669</v>
+        <v>6.402536876182776</v>
       </c>
       <c r="D19">
-        <v>4.768095234234709</v>
+        <v>4.834954163813483</v>
       </c>
       <c r="E19">
-        <v>35.60859372657521</v>
+        <v>19.26105318901951</v>
       </c>
       <c r="F19">
-        <v>20.55267556610968</v>
+        <v>23.91208379674718</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.73287245995462</v>
+        <v>9.585121895948403</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.8394946442983</v>
+        <v>17.69955614485031</v>
       </c>
       <c r="O19">
-        <v>15.51269134507438</v>
+        <v>21.15746279444247</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.05905196783284</v>
+        <v>10.80198129437671</v>
       </c>
       <c r="C20">
-        <v>9.473814933014355</v>
+        <v>6.468587223238588</v>
       </c>
       <c r="D20">
-        <v>4.814666159850725</v>
+        <v>4.852735375722834</v>
       </c>
       <c r="E20">
-        <v>36.37730751988889</v>
+        <v>19.6302703391353</v>
       </c>
       <c r="F20">
-        <v>20.79341458387665</v>
+        <v>23.93258209439221</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.99384948497678</v>
+        <v>9.677669271797603</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.75189971755942</v>
+        <v>17.67705266877796</v>
       </c>
       <c r="O20">
-        <v>15.61580090278767</v>
+        <v>21.14975878788651</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.10740758760886</v>
+        <v>11.21719353416721</v>
       </c>
       <c r="C21">
-        <v>9.948571874969716</v>
+        <v>6.68467987794931</v>
       </c>
       <c r="D21">
-        <v>4.967242564422667</v>
+        <v>4.911482250621551</v>
       </c>
       <c r="E21">
-        <v>38.89882109614247</v>
+        <v>20.82351206769257</v>
       </c>
       <c r="F21">
-        <v>21.61403680693594</v>
+        <v>24.00950122961286</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.84345146444576</v>
+        <v>9.983842930206169</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.4588506844437</v>
+        <v>17.60341919368833</v>
       </c>
       <c r="O21">
-        <v>15.98255361515593</v>
+        <v>21.13012479455301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.76599467419081</v>
+        <v>11.48162082320528</v>
       </c>
       <c r="C22">
-        <v>10.24913259668907</v>
+        <v>6.821441630808012</v>
       </c>
       <c r="D22">
-        <v>5.063960045655612</v>
+        <v>4.949108926042308</v>
       </c>
       <c r="E22">
-        <v>40.50367182747565</v>
+        <v>21.5682972297528</v>
       </c>
       <c r="F22">
-        <v>22.15887747276206</v>
+        <v>24.06572597386447</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.37861453170787</v>
+        <v>10.18005722045405</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.26797001713832</v>
+        <v>17.55676077797477</v>
       </c>
       <c r="O22">
-        <v>16.23781861341268</v>
+        <v>21.1219632088415</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.41689962639967</v>
+        <v>11.34115068364959</v>
       </c>
       <c r="C23">
-        <v>10.08960296574449</v>
+        <v>6.74886555781921</v>
       </c>
       <c r="D23">
-        <v>5.012620533641578</v>
+        <v>4.929098745178367</v>
       </c>
       <c r="E23">
-        <v>39.65090367764937</v>
+        <v>21.17398920530033</v>
       </c>
       <c r="F23">
-        <v>21.86731941469757</v>
+        <v>24.03517610779967</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.09481232725174</v>
+        <v>10.07570997649765</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.36980753120098</v>
+        <v>17.58152960935327</v>
       </c>
       <c r="O23">
-        <v>16.10012664871093</v>
+        <v>21.12589117623879</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04146285530409</v>
+        <v>10.79508357511707</v>
       </c>
       <c r="C24">
-        <v>9.465890537670315</v>
+        <v>6.46498164112905</v>
       </c>
       <c r="D24">
-        <v>4.81212310410365</v>
+        <v>4.851762595033914</v>
       </c>
       <c r="E24">
-        <v>36.33533004448324</v>
+        <v>19.61017298865642</v>
       </c>
       <c r="F24">
-        <v>20.78014926736152</v>
+        <v>23.93142604726075</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.97962082470815</v>
+        <v>9.672604085697596</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.7567045687489</v>
+        <v>17.67828100435702</v>
       </c>
       <c r="O24">
-        <v>15.61006327107162</v>
+        <v>21.15015837398285</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.44127402070674</v>
+        <v>10.17907338109204</v>
       </c>
       <c r="C25">
-        <v>8.751244824876261</v>
+        <v>6.140429222239264</v>
       </c>
       <c r="D25">
-        <v>4.583623569776245</v>
+        <v>4.76521555593911</v>
       </c>
       <c r="E25">
-        <v>32.55794038254378</v>
+        <v>17.77168374368506</v>
       </c>
       <c r="F25">
-        <v>19.64592702029447</v>
+        <v>23.84534334191644</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.68920398594699</v>
+        <v>9.223315184471433</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.17863973139346</v>
+        <v>17.78897847565323</v>
       </c>
       <c r="O25">
-        <v>15.1455085073431</v>
+        <v>21.19630335628161</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_112/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.705819096474256</v>
+        <v>14.16016799547506</v>
       </c>
       <c r="C2">
-        <v>5.886732840644895</v>
+        <v>8.189280043403041</v>
       </c>
       <c r="D2">
-        <v>4.698982350471384</v>
+        <v>4.405643468011077</v>
       </c>
       <c r="E2">
-        <v>16.47109017746577</v>
+        <v>29.58774225021715</v>
       </c>
       <c r="F2">
-        <v>23.8043630212011</v>
+        <v>18.846539399024</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.882731979470774</v>
+        <v>12.66284190243752</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.87599817921527</v>
+        <v>11.49514500024551</v>
       </c>
       <c r="O2">
-        <v>21.24733676098599</v>
+        <v>14.85518763172154</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.374954354194008</v>
+        <v>13.22659821172241</v>
       </c>
       <c r="C3">
-        <v>5.706250316016121</v>
+        <v>7.786574915686622</v>
       </c>
       <c r="D3">
-        <v>4.652626964583883</v>
+        <v>4.279417168664713</v>
       </c>
       <c r="E3">
-        <v>15.53926467437217</v>
+        <v>27.44988242437914</v>
       </c>
       <c r="F3">
-        <v>23.79061507511111</v>
+        <v>18.32873715677707</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.647363175537642</v>
+        <v>11.91958919520856</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.93844410697893</v>
+        <v>11.71411542649133</v>
       </c>
       <c r="O3">
-        <v>21.2924919510841</v>
+        <v>14.68883229915761</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.167637212089963</v>
+        <v>12.62081203150825</v>
       </c>
       <c r="C4">
-        <v>5.591466566721013</v>
+        <v>7.528802441796537</v>
       </c>
       <c r="D4">
-        <v>4.623474135509062</v>
+        <v>4.199327539190244</v>
       </c>
       <c r="E4">
-        <v>14.9424130199795</v>
+        <v>26.07348319726072</v>
       </c>
       <c r="F4">
-        <v>23.78909603260898</v>
+        <v>18.02320662396684</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.501173258586117</v>
+        <v>11.43980507677153</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.97850918578589</v>
+        <v>11.85101830203782</v>
       </c>
       <c r="O4">
-        <v>21.32540428907016</v>
+        <v>14.60099367611771</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.082245421718524</v>
+        <v>12.36571667893514</v>
       </c>
       <c r="C5">
-        <v>5.543735994404134</v>
+        <v>7.421171013320796</v>
       </c>
       <c r="D5">
-        <v>4.611425863154473</v>
+        <v>4.166069995046258</v>
       </c>
       <c r="E5">
-        <v>14.69324880114321</v>
+        <v>25.4962673429831</v>
       </c>
       <c r="F5">
-        <v>23.79021741609503</v>
+        <v>17.90190715503338</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.441271340075417</v>
+        <v>11.23843153479523</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.99527072555968</v>
+        <v>11.90745834841484</v>
       </c>
       <c r="O5">
-        <v>21.34011648575572</v>
+        <v>14.56868591495616</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.068015606255418</v>
+        <v>12.32285994012998</v>
       </c>
       <c r="C6">
-        <v>5.535753985052296</v>
+        <v>7.403144554017232</v>
       </c>
       <c r="D6">
-        <v>4.609415252793566</v>
+        <v>4.160511060759828</v>
       </c>
       <c r="E6">
-        <v>14.65152531950265</v>
+        <v>25.39942702463598</v>
       </c>
       <c r="F6">
-        <v>23.79050870178548</v>
+        <v>17.88196158250546</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.431307628284383</v>
+        <v>11.20464112602289</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.99808026285974</v>
+        <v>11.91687044730806</v>
       </c>
       <c r="O6">
-        <v>21.34263783351084</v>
+        <v>14.56352848906329</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.166489074324344</v>
+        <v>12.61740511171648</v>
       </c>
       <c r="C7">
-        <v>5.590826664655144</v>
+        <v>7.527361277548571</v>
       </c>
       <c r="D7">
-        <v>4.62331232243314</v>
+        <v>4.198881486776269</v>
       </c>
       <c r="E7">
-        <v>14.9390763681942</v>
+        <v>26.0657651255107</v>
       </c>
       <c r="F7">
-        <v>23.78910411059337</v>
+        <v>18.02155764164523</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.500366604492665</v>
+        <v>11.4371129442448</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.97873347583927</v>
+        <v>11.85177679295097</v>
       </c>
       <c r="O7">
-        <v>21.32559744439217</v>
+        <v>14.60054399370037</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.592681041092508</v>
+        <v>13.84500572449379</v>
       </c>
       <c r="C8">
-        <v>5.825349865947812</v>
+        <v>8.05263775482681</v>
       </c>
       <c r="D8">
-        <v>4.683145492745095</v>
+        <v>4.362674589130009</v>
       </c>
       <c r="E8">
-        <v>16.15507130896395</v>
+        <v>28.86365666716565</v>
       </c>
       <c r="F8">
-        <v>23.79818628822194</v>
+        <v>18.66548154846577</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.801977782593211</v>
+        <v>12.4114441658645</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.89717278371593</v>
+        <v>11.57015773476994</v>
       </c>
       <c r="O8">
-        <v>21.26182735092079</v>
+        <v>14.7947959470904</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.38989363547242</v>
+        <v>15.9961169102085</v>
       </c>
       <c r="C9">
-        <v>6.252119765099915</v>
+        <v>8.997567053323628</v>
       </c>
       <c r="D9">
-        <v>4.79477129594236</v>
+        <v>4.662163125262879</v>
       </c>
       <c r="E9">
-        <v>18.41137254896235</v>
+        <v>33.85870248409664</v>
       </c>
       <c r="F9">
-        <v>23.87087055002837</v>
+        <v>20.02264444706757</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.376368424807087</v>
+        <v>14.13568071706533</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.75083767219069</v>
+        <v>11.03572145879238</v>
       </c>
       <c r="O9">
-        <v>21.17810115012547</v>
+        <v>15.29372547240931</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.94556887747802</v>
+        <v>17.42382845745716</v>
       </c>
       <c r="C10">
-        <v>6.5435206323015</v>
+        <v>9.638469686580812</v>
       </c>
       <c r="D10">
-        <v>4.873007789175806</v>
+        <v>4.867538422364822</v>
       </c>
       <c r="E10">
-        <v>20.04649757973483</v>
+        <v>37.25025444921034</v>
       </c>
       <c r="F10">
-        <v>23.95756516882097</v>
+        <v>21.07230456655115</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.78327021208807</v>
+        <v>15.28913224873305</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.65152479582289</v>
+        <v>10.65142447418365</v>
       </c>
       <c r="O10">
-        <v>21.14199546738764</v>
+        <v>15.73788654672048</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.19068458618787</v>
+        <v>18.04103285623654</v>
       </c>
       <c r="C11">
-        <v>6.670935294790323</v>
+        <v>9.918376059988198</v>
       </c>
       <c r="D11">
-        <v>4.907719757319902</v>
+        <v>4.957528746211622</v>
       </c>
       <c r="E11">
-        <v>20.74823905097954</v>
+        <v>38.73799810812387</v>
       </c>
       <c r="F11">
-        <v>24.0041689878088</v>
+        <v>21.56036079148404</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.964223287127377</v>
+        <v>15.78957469358139</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.60810499467772</v>
+        <v>10.47779599455518</v>
       </c>
       <c r="O11">
-        <v>21.13112506693341</v>
+        <v>15.95788987782039</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.28231972741806</v>
+        <v>18.27018895823955</v>
       </c>
       <c r="C12">
-        <v>6.718419679285143</v>
+        <v>10.02270132023463</v>
       </c>
       <c r="D12">
-        <v>4.920733082834631</v>
+        <v>4.991092766213674</v>
       </c>
       <c r="E12">
-        <v>21.00795447534692</v>
+        <v>39.29393422362178</v>
       </c>
       <c r="F12">
-        <v>24.02283910049953</v>
+        <v>21.74664003590843</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.03208381471484</v>
+        <v>15.97562864227012</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.59191435628163</v>
+        <v>10.41216223382618</v>
       </c>
       <c r="O12">
-        <v>21.12780980482027</v>
+        <v>16.04386508916133</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.26263837180483</v>
+        <v>18.2210379051761</v>
       </c>
       <c r="C13">
-        <v>6.70822744736738</v>
+        <v>10.00030706524622</v>
       </c>
       <c r="D13">
-        <v>4.917936350733389</v>
+        <v>4.98388727432784</v>
       </c>
       <c r="E13">
-        <v>20.95228727918808</v>
+        <v>39.17452610518203</v>
       </c>
       <c r="F13">
-        <v>24.01877283906882</v>
+        <v>21.70645707059434</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.01749928704482</v>
+        <v>15.93571146024333</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.59539013540391</v>
+        <v>10.42629344168145</v>
       </c>
       <c r="O13">
-        <v>21.12848814178403</v>
+        <v>16.02522895427806</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.19824765026313</v>
+        <v>18.05997672380802</v>
       </c>
       <c r="C14">
-        <v>6.6748573234785</v>
+        <v>9.926992352455393</v>
       </c>
       <c r="D14">
-        <v>4.908793032172591</v>
+        <v>4.960300471090003</v>
       </c>
       <c r="E14">
-        <v>20.76972643389977</v>
+        <v>38.78388147338212</v>
       </c>
       <c r="F14">
-        <v>24.00568455397814</v>
+        <v>21.57565702385206</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.969819847312991</v>
+        <v>15.8049504141227</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.60676794824084</v>
+        <v>10.47239428695773</v>
       </c>
       <c r="O14">
-        <v>21.13083625032028</v>
+        <v>15.96490923043109</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.15864988043739</v>
+        <v>17.96072981117476</v>
       </c>
       <c r="C15">
-        <v>6.654316871884269</v>
+        <v>9.881867906825208</v>
       </c>
       <c r="D15">
-        <v>4.903175233318338</v>
+        <v>4.945785475992317</v>
       </c>
       <c r="E15">
-        <v>20.6571197878965</v>
+        <v>38.54364661154039</v>
       </c>
       <c r="F15">
-        <v>23.99780046044821</v>
+        <v>21.49572742984502</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.940526683693861</v>
+        <v>15.72440711943214</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.61376990060845</v>
+        <v>10.50064569563719</v>
       </c>
       <c r="O15">
-        <v>21.13237892883348</v>
+        <v>15.92831114221205</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.92938846894414</v>
+        <v>17.38284958768936</v>
       </c>
       <c r="C16">
-        <v>6.535088054112456</v>
+        <v>9.619943070426531</v>
       </c>
       <c r="D16">
-        <v>4.870721172669731</v>
+        <v>4.861586514450495</v>
       </c>
       <c r="E16">
-        <v>19.99979308593342</v>
+        <v>37.15195838166779</v>
       </c>
       <c r="F16">
-        <v>23.95466303099245</v>
+        <v>21.04061624441604</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.771355254427661</v>
+        <v>15.2559417495313</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.65439764702244</v>
+        <v>10.66279082386461</v>
       </c>
       <c r="O16">
-        <v>21.14281785709153</v>
+        <v>15.72387719332329</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.78671904719312</v>
+        <v>17.02012498803619</v>
       </c>
       <c r="C17">
-        <v>6.460608579126189</v>
+        <v>9.456279111891703</v>
       </c>
       <c r="D17">
-        <v>4.850583079403894</v>
+        <v>4.809038862827377</v>
       </c>
       <c r="E17">
-        <v>19.58578895526622</v>
+        <v>36.28441996374798</v>
       </c>
       <c r="F17">
-        <v>23.9300296423322</v>
+        <v>20.76407940791927</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.666462744038165</v>
+        <v>14.96236082140409</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.67977081078456</v>
+        <v>10.76252855273556</v>
       </c>
       <c r="O17">
-        <v>21.15064624736786</v>
+        <v>15.60312121317964</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.70394231535827</v>
+        <v>16.80845328707498</v>
       </c>
       <c r="C18">
-        <v>6.417286972319839</v>
+        <v>9.361047077207472</v>
       </c>
       <c r="D18">
-        <v>4.838917812739639</v>
+        <v>4.778492469318781</v>
       </c>
       <c r="E18">
-        <v>19.34370152511957</v>
+        <v>35.78021780741469</v>
       </c>
       <c r="F18">
-        <v>23.91653625420192</v>
+        <v>20.60601898781253</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.60574442494932</v>
+        <v>14.79121371011484</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.69453034466046</v>
+        <v>10.82001070521758</v>
       </c>
       <c r="O18">
-        <v>21.15567160565891</v>
+        <v>15.53535050716545</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.67579506837988</v>
+        <v>16.73626023514511</v>
       </c>
       <c r="C19">
-        <v>6.402536876182776</v>
+        <v>9.328614760705666</v>
       </c>
       <c r="D19">
-        <v>4.834954163813483</v>
+        <v>4.768095234234888</v>
       </c>
       <c r="E19">
-        <v>19.26105318901951</v>
+        <v>35.6085937265752</v>
       </c>
       <c r="F19">
-        <v>23.91208379674718</v>
+        <v>20.55267556610978</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.585121895948403</v>
+        <v>14.73287245995455</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.69955614485031</v>
+        <v>10.83949464429847</v>
       </c>
       <c r="O19">
-        <v>21.15746279444247</v>
+        <v>15.51269134507453</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.80198129437671</v>
+        <v>17.05905196783283</v>
       </c>
       <c r="C20">
-        <v>6.468587223238588</v>
+        <v>9.473814933014198</v>
       </c>
       <c r="D20">
-        <v>4.852735375722834</v>
+        <v>4.814666159850606</v>
       </c>
       <c r="E20">
-        <v>19.6302703391353</v>
+        <v>36.37730751988899</v>
       </c>
       <c r="F20">
-        <v>23.93258209439221</v>
+        <v>20.79341458387665</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.677669271797603</v>
+        <v>14.99384948497673</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.67705266877796</v>
+        <v>10.75189971755942</v>
       </c>
       <c r="O20">
-        <v>21.14975878788651</v>
+        <v>15.61580090278769</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.21719353416721</v>
+        <v>18.1074075876089</v>
       </c>
       <c r="C21">
-        <v>6.68467987794931</v>
+        <v>9.948571874969932</v>
       </c>
       <c r="D21">
-        <v>4.911482250621551</v>
+        <v>4.967242564422725</v>
       </c>
       <c r="E21">
-        <v>20.82351206769257</v>
+        <v>38.89882109614239</v>
       </c>
       <c r="F21">
-        <v>24.00950122961286</v>
+        <v>21.61403680693587</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.983842930206169</v>
+        <v>15.84345146444578</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.60341919368833</v>
+        <v>10.45885068444366</v>
       </c>
       <c r="O21">
-        <v>21.13012479455301</v>
+        <v>15.98255361515586</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.48162082320528</v>
+        <v>18.76599467419088</v>
       </c>
       <c r="C22">
-        <v>6.821441630808012</v>
+        <v>10.24913259668907</v>
       </c>
       <c r="D22">
-        <v>4.949108926042308</v>
+        <v>5.063960045655527</v>
       </c>
       <c r="E22">
-        <v>21.5682972297528</v>
+        <v>40.50367182747558</v>
       </c>
       <c r="F22">
-        <v>24.06572597386447</v>
+        <v>22.1588774727621</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.18005722045405</v>
+        <v>16.37861453170788</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.55676077797477</v>
+        <v>10.26797001713835</v>
       </c>
       <c r="O22">
-        <v>21.1219632088415</v>
+        <v>16.2378186134127</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.34115068364959</v>
+        <v>18.4168996263997</v>
       </c>
       <c r="C23">
-        <v>6.74886555781921</v>
+        <v>10.08960296574447</v>
       </c>
       <c r="D23">
-        <v>4.929098745178367</v>
+        <v>5.01262053364163</v>
       </c>
       <c r="E23">
-        <v>21.17398920530033</v>
+        <v>39.65090367764949</v>
       </c>
       <c r="F23">
-        <v>24.03517610779967</v>
+        <v>21.86731941469757</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.07570997649765</v>
+        <v>16.09481232725178</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.58152960935327</v>
+        <v>10.36980753120098</v>
       </c>
       <c r="O23">
-        <v>21.12589117623879</v>
+        <v>16.10012664871091</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.79508357511707</v>
+        <v>17.0414628553041</v>
       </c>
       <c r="C24">
-        <v>6.46498164112905</v>
+        <v>9.465890537670315</v>
       </c>
       <c r="D24">
-        <v>4.851762595033914</v>
+        <v>4.812123104103732</v>
       </c>
       <c r="E24">
-        <v>19.61017298865642</v>
+        <v>36.33533004448324</v>
       </c>
       <c r="F24">
-        <v>23.93142604726075</v>
+        <v>20.78014926736142</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.672604085697596</v>
+        <v>14.97962082470819</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.67828100435702</v>
+        <v>10.75670456874883</v>
       </c>
       <c r="O24">
-        <v>21.15015837398285</v>
+        <v>15.61006327107152</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.17907338109204</v>
+        <v>15.44127402070677</v>
       </c>
       <c r="C25">
-        <v>6.140429222239264</v>
+        <v>8.751244824876057</v>
       </c>
       <c r="D25">
-        <v>4.76521555593911</v>
+        <v>4.583623569776312</v>
       </c>
       <c r="E25">
-        <v>17.77168374368506</v>
+        <v>32.55794038254382</v>
       </c>
       <c r="F25">
-        <v>23.84534334191644</v>
+        <v>19.64592702029445</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.223315184471433</v>
+        <v>13.68920398594694</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.78897847565323</v>
+        <v>11.1786397313935</v>
       </c>
       <c r="O25">
-        <v>21.19630335628161</v>
+        <v>15.14550850734312</v>
       </c>
     </row>
   </sheetData>
